--- a/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_gemini-2.0-flash-lite-001.xlsx
+++ b/nl_sql_results/nltosql-perfect_subsetter-snails-Native-oracle-nlsqlmodel_gemini-2.0-flash-lite-001.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5' </t>
+          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5'  </t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -542,7 +542,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID </t>
+          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID  </t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements </t>
+          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements  </t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID </t>
+          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID  </t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID </t>
+          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID  </t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID </t>
+          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID  </t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -732,16 +732,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SELECT LocationID, SUM(Count) FROM tblFieldDataMinnowTrapSurveys GROUP BY LocationID</t>
+          <t>SELECT LocationID, SUM(Count)
+FROM tblFieldDataMinnowTrapSurveys
+GROUP BY LocationID;</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#] </t>
+          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#]  </t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -776,7 +778,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage </t>
+          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage  </t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -815,7 +817,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts ) </t>
+          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts )  </t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -861,7 +863,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )  </t>
+          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )   </t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -907,7 +909,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex </t>
+          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex  </t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -948,7 +950,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -980,21 +982,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SELECT MAX(SVL) FROM tblFieldDataSnakeDataCollection</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 svl  from tblFieldDataSnakeDataCollection order by svl desc </t>
+          <t xml:space="preserve">select  svl  from tblFieldDataSnakeDataCollection order by svl desc limit 1 </t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>172</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1030,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex </t>
+          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex  </t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1065,7 +1071,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code] </t>
+          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code]  </t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1113,7 +1119,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title] </t>
+          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title]  </t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1162,7 +1168,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner' </t>
+          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner'  </t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1197,23 +1203,23 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>SELECT DISTINCT
-  O.ObsInits,
-  O.FirstName,
-  O.LastName
-FROM Observer_LU AS O
-JOIN tlinkObservers AS TLO
-  ON O.ObsInits = TLO.ObsInits
-JOIN tblFieldDataTurtleMeasurements AS TFTM
-  ON TLO.EventID = TFTM.EventID;</t>
+  T1.ObsInits,
+  T1.FirstName,
+  T1.LastName
+FROM Observer_LU AS T1
+INNER JOIN tlinkObservers AS T2
+  ON T1.ObsInits = T2.ObsInits
+INNER JOIN tblFieldDataTurtleMeasurements AS T3
+  ON T2.EventID = T3.EventID;</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID  </t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1248,7 +1254,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations </t>
+          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations  </t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1295,7 +1301,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId </t>
+          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId  </t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1341,7 +1347,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description </t>
+          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description  </t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1380,7 +1386,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional' </t>
+          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional'  </t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1419,7 +1425,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood' </t>
+          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood'  </t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1465,7 +1471,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0 </t>
+          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0  </t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1504,7 +1510,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy' </t>
+          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy'  </t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1543,7 +1549,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior </t>
+          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior  </t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1582,7 +1588,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%' </t>
+          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%'  </t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1633,7 +1639,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1' </t>
+          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1'  </t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1672,7 +1678,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID  </t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1718,7 +1724,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1764,7 +1770,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits </t>
+          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits  </t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1808,7 +1814,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1847,7 +1853,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description  from tluProject where project = 'WQ' </t>
+          <t xml:space="preserve">select description  from tluProject where project = 'WQ'  </t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1886,7 +1892,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS' </t>
+          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS'  </t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1925,7 +1931,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR' </t>
+          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR'  </t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1964,7 +1970,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond') </t>
+          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond')  </t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2003,7 +2009,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type] </t>
+          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type]  </t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2037,20 +2043,16 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT
-  LocationID
-FROM tblFieldDataTurtleTrapSurveys
-WHERE
-  Trap_Type = 'crab';</t>
+          <t>SELECT DISTINCT LocationID FROM tblFieldDataTurtleTrapSurveys WHERE Trap_Type = 'crab'</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab' </t>
+          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab'  </t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
@@ -2094,7 +2096,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2133,7 +2135,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1 </t>
+          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1  </t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2179,7 +2181,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName </t>
+          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName  </t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2213,16 +2215,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SELECT T1.CommonName FROM tlu_PlantSpecies AS T1 LEFT JOIN tbl_Nests AS T2 ON T1.SpeciesCode = T2.SpCode WHERE T2.SpCode IS NULL</t>
+          <t>SELECT
+  T1.CommonName
+FROM tlu_PlantSpecies AS T1
+LEFT JOIN tbl_Nests AS T2
+  ON T1.SpeciesCode = T2.SpCode
+WHERE
+  T2.SpCode IS NULL;</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	) </t>
+          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	)  </t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -2250,21 +2258,35 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.genus,
+  COUNT(T2.SpCode)
+FROM tlu_PlantSpecies AS T1
+INNER JOIN tbl_Nests AS T2
+  ON T1.SpeciesCode = T2.SpCode
+GROUP BY
+  T1.genus
+ORDER BY
+  COUNT(T2.SpCode) DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 5 genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc </t>
+          <t xml:space="preserve">select  genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc limit 5 </t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>251</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2317,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">select *  from tlu_DecayStage </t>
+          <t xml:space="preserve">select *  from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2334,7 +2356,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood </t>
+          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood  </t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2368,16 +2390,18 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SELECT Event_ID, COUNT(Event_ID) FROM tbl_Deadwood GROUP BY Event_ID</t>
+          <t>SELECT Event_ID, COUNT(Event_ID)
+FROM tbl_Deadwood
+GROUP BY Event_ID;</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID </t>
+          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID  </t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -2430,18 +2454,18 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select TOP 1 Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc ) group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc limit 1 ) group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>309</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2505,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc </t>
+          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc  </t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2523,27 +2547,29 @@
 FROM tbl_Locations AS T1
 INNER JOIN tbl_Events AS T2
   ON T1.Location_ID = T2.Location_ID
+INNER JOIN tbl_Nests AS T3
+  ON T2.Event_ID = T3.Event_ID
 GROUP BY
   T1.Location_ID
 ORDER BY
-  COUNT(T2.Event_ID) DESC
+  COUNT(T3.Event_ID) DESC
 LIMIT 1;</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT TOP 1 Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*)  ) </t>
+          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*) limit 1  )  </t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2597,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2610,7 +2636,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2649,7 +2675,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down' </t>
+          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down'  </t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2688,7 +2714,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20 </t>
+          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20  </t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2727,7 +2753,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10 </t>
+          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10  </t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2768,7 +2794,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode </t>
+          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode  </t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2807,7 +2833,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings </t>
+          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings  </t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2846,7 +2872,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6 </t>
+          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6  </t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2885,7 +2911,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000 </t>
+          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000  </t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2933,7 +2959,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text </t>
+          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text  </t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2972,7 +2998,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30 </t>
+          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30  </t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3020,7 +3046,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species </t>
+          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species  </t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3059,7 +3085,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2 </t>
+          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2  </t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -3109,7 +3135,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County </t>
+          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County  </t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3148,7 +3174,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount' </t>
+          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount'  </t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -3187,7 +3213,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851 </t>
+          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851  </t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3226,7 +3252,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead' </t>
+          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead'  </t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3265,7 +3291,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3 </t>
+          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3  </t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3304,7 +3330,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Datum  from tsys_App_Defaults  </t>
+          <t xml:space="preserve">select Datum  from tsys_App_Defaults   </t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3339,31 +3365,29 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>SELECT DISTINCT
-  T2.genus,
-  T2.species,
-  T2.CommonName
-FROM tbl_Tree_Tags AS T1
-INNER JOIN tlu_PlantSpecies AS T2
-  ON T1.SpCode = T2.SpeciesCode
-INNER JOIN tbl_Locations AS T3
-  ON T1.Location_ID = T3.Location_ID
-INNER JOIN tlu_PlaceNames AS T4
-  ON T3.PlaceNameID = T4.ID
+  T1.genus,
+  T1.species,
+  T1.CommonName
+FROM tlu_PlantSpecies AS T1
+INNER JOIN tbl_Overstory AS T2
+  ON T1.SpeciesCode = T2.SpCode
+INNER JOIN tbl_Tree_Tags AS T3
+  ON T2.TreeTag = T3.Tree_Tag_ID
+INNER JOIN tbl_Locations AS T4
+  ON T3.Location_ID = T4.Location_ID
+INNER JOIN tlu_PlaceNames AS T5
+  ON T4.PlaceNameID = T5.ID
 WHERE
-  T4.County = 'Swain'
-GROUP BY
-  T2.genus,
-  T2.species,
-  T2.CommonName;</t>
+  T5.County = 'Swain';</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain' </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain'  </t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
@@ -3407,7 +3431,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode ) </t>
+          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode )  </t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3446,7 +3470,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652 </t>
+          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652  </t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3492,7 +3516,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text </t>
+          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text  </t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3538,7 +3562,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text </t>
+          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text  </t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3579,7 +3603,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3620,7 +3644,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3654,23 +3678,23 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SELECT T2.DecayStage_Descr FROM tlu_DecayStage AS T2 INNER JOIN tree_decay AS T1 ON T1.DecayStage_ID = T2.DecayStage_ID ORDER BY T1.MidpointDiameter LIMIT 1</t>
+          <t>SELECT T1.DecayStage_Descr FROM tlu_DecayStage AS T1 INNER JOIN tbl_Deadwood AS T2 ON T1.DecayStage_ID = T2.Decay WHERE T2.MPD = (SELECT MIN(MPD) FROM tbl_Deadwood)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by MPD asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by MPD asc limit 1 )  </t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3693,23 +3717,23 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SELECT T1.DecayStage_Descr FROM tlu_DecayStage AS T1 INNER JOIN specimen AS T2 ON T1.DecayStage_ID = T2.DecayStage_ID ORDER BY T2.Length ASC LIMIT 1</t>
+          <t>SELECT T1.DecayStage_Descr FROM tlu_DecayStage AS T1 INNER JOIN tbl_Deadwood AS T2 ON T1.DecayStage_ID = T2.Decay WHERE T2.Length = (SELECT MIN(Length) FROM tbl_Deadwood)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by Length asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by Length asc limit 1 )  </t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3763,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex' </t>
+          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex'  </t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3778,7 +3802,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7 </t>
+          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7  </t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3817,7 +3841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3856,7 +3880,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf'  </t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3890,18 +3914,16 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT Observer)
-FROM VERTEBRATES
-WHERE Observer IN ('Stefanic', 'Dennis Hauser');</t>
+          <t>SELECT COUNT(DISTINCT Observer) FROM VERTEBRATES WHERE Observer = 'Stefanic' OR Observer = 'Dennis Hauser'</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser' </t>
+          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser'  </t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -3945,7 +3967,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition </t>
+          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition  </t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3984,7 +4006,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida'  </t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4018,16 +4040,16 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT Family FROM INVERTEBRATES WHERE Family NOT IN (SELECT Family FROM Invert_Family) AND Family IS NOT NULL</t>
+          <t>SELECT DISTINCT Family FROM INVERTEBRATES EXCEPT SELECT DISTINCT Invert_Family FROM Invert_Family WHERE Invert_Family IS NOT NULL</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL </t>
+          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL  </t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -4062,7 +4084,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235' </t>
+          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235'  </t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4108,7 +4130,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month </t>
+          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month  </t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -4147,7 +4169,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990 </t>
+          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990  </t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4190,7 +4212,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015 </t>
+          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015  </t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4231,7 +4253,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date ) </t>
+          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date )  </t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -4263,21 +4285,28 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SELECT Species, Year, Month
+FROM Roadkill
+ORDER BY CAST(number_killed AS INTEGER) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 species, year, month  from Roadkill order by number_killed desc </t>
+          <t xml:space="preserve">select  species, year, month  from Roadkill order by number_killed desc limit 1 </t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-1</v>
+        <v>191</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4344,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code </t>
+          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code  </t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4354,7 +4383,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 ) </t>
+          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 )  </t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4399,7 +4428,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat ) </t>
+          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat )  </t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4447,7 +4476,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat </t>
+          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat  </t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4486,7 +4515,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4525,7 +4554,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus' </t>
+          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus'  </t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4566,7 +4595,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES </t>
+          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES  </t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -4605,7 +4634,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white' </t>
+          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white'  </t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4644,7 +4673,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766 </t>
+          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766  </t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4683,7 +4712,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4725,7 +4754,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family </t>
+          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family  </t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4764,7 +4793,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer' </t>
+          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer'  </t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4803,7 +4832,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta' </t>
+          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta'  </t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4842,7 +4871,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4881,7 +4910,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey </t>
+          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey  </t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4920,7 +4949,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose' </t>
+          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose'  </t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4959,7 +4988,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location </t>
+          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location  </t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -5004,7 +5033,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal' </t>
+          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal'  </t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -5053,7 +5082,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100 </t>
+          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100  </t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -5092,7 +5121,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5126,12 +5155,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SELECT COMMON_NAME FROM WILDLIFE_MASTERLIST EXCEPT SELECT Common_Name FROM INVERTEBRATES</t>
+          <t>SELECT COMMON_NAME FROM WILDLIFE_MASTERLIST EXCEPT SELECT COMMON_NAME FROM INVERTEBRATES</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name ) </t>
+          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name )  </t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5170,7 +5199,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species ) </t>
+          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species )  </t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -5202,21 +5231,30 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SELECT HWY_Mile_Marker
+FROM Roadkill
+WHERE Year = '2021'
+GROUP BY HWY_Mile_Marker
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc </t>
+          <t xml:space="preserve">select  HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc limit 1 </t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5282,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -5283,7 +5321,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher'  </t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5324,7 +5362,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel'  </t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5370,7 +5408,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location </t>
+          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location  </t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -5415,7 +5453,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' ) </t>
+          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' )  </t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5454,7 +5492,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES </t>
+          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES  </t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5500,18 +5538,18 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G122" t="n">
         <v>274</v>
       </c>
       <c r="H122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5548,18 +5586,18 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G123" t="n">
         <v>316</v>
       </c>
       <c r="H123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5625,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) eventCount from tbl_events </t>
+          <t xml:space="preserve">select count(*) eventCount from tbl_events  </t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5629,7 +5667,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID </t>
+          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID  </t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5668,7 +5706,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland' </t>
+          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland'  </t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5700,21 +5738,28 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SELECT Reason, Field, Date_Change
+FROM tbl_Edit_Log
+ORDER BY Date_Change DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc </t>
+          <t xml:space="preserve">select  Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc limit 1 </t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>-1</v>
+        <v>201</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -5742,7 +5787,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0 </t>
+          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0  </t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5774,21 +5819,40 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SELECT
+  T2.LightIndex,
+  T2.Evergreen,
+  T2.Litter,
+  T2.VegHeight,
+  T1.Elevation
+FROM tbl_Locations AS T1
+INNER JOIN tbl_Events AS T3
+  ON T1.Location_ID = T3.Location_ID
+INNER JOIN tbl_MicroHabitat AS T2
+  ON T3.Event_ID = T2.Event_ID
+WHERE
+  STRFTIME('%Y-%m-%d', T3.Start_Date) = '2009-07-28'
+ORDER BY
+  T1.Elevation DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where year(Start_Date) = 2009 and month(Start_Date) = 7 and day(Start_Date) = 28 order by Elevation desc </t>
+          <t xml:space="preserve">select LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) BETWEEN date('2009-07-28') AND date('2009-07-28') order by Elevation desc limit 1  </t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>-1</v>
+        <v>368</v>
       </c>
       <c r="H129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5880,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA </t>
+          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA  </t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -5855,7 +5919,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017 </t>
+          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017  </t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5896,7 +5960,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear  </t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5937,7 +6001,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear  </t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -5976,7 +6040,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS )  </t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -6010,16 +6074,16 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT T1.Species FROM tlu_Species_ORCA AS T1 INNER JOIN tlu_Species_LAVO AS T2 ON T1.Species = T2.Species</t>
+          <t>SELECT DISTINCT Species FROM tlu_Species_ORCA INTERSECT SELECT DISTINCT Species FROM tlu_Species_LAVO</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA )  </t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
@@ -6056,7 +6120,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C' </t>
+          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C'  </t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -6095,7 +6159,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D' </t>
+          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D'  </t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6134,7 +6198,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations </t>
+          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations  </t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -6173,7 +6237,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging' </t>
+          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging'  </t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -6214,7 +6278,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group </t>
+          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group  </t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -6258,7 +6322,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S' </t>
+          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S'  </t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -6304,18 +6368,18 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by year(Revision_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by strftime('%Y', Revision_Date)  </t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>200</v>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6336,21 +6400,28 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SELECT Site_Name, Site_ID, Site_Desc, Length, Route
+FROM tbl_Sites
+ORDER BY Site_Start_Y DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc </t>
+          <t xml:space="preserve">select  Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc limit 1 </t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>216</v>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6449,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C' </t>
+          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C'  </t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6410,21 +6481,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SELECT T1.Site_Name, COUNT(T2.Site_ID) FROM tbl_Sites AS T1 INNER JOIN tbl_Locations AS T2 ON T1.Site_ID = T2.Site_ID GROUP BY T2.Site_ID ORDER BY COUNT(T2.Site_ID) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>235</v>
       </c>
       <c r="H145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6535,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A'  </t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -6492,21 +6567,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SELECT T1.First_Name FROM tlu_Contacts AS T1 INNER JOIN xref_Event_Contacts AS T2 ON T1.Contact_ID = T2.Contact_ID GROUP BY T1.Contact_ID ORDER BY COUNT(DISTINCT T2.Event_ID) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc </t>
+          <t xml:space="preserve">select  First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc limit 1 </t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-1</v>
+        <v>242</v>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6544,18 +6623,18 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where year(Start_Date) = 2021 and month(Start_Date) = 8 </t>
+          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2021-08-01') and date(Start_Date) &lt;= date('2021-08-31')  </t>
         </is>
       </c>
       <c r="G148" t="n">
         <v>358</v>
       </c>
       <c r="H148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6576,21 +6655,35 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Loc_Name,
+  COUNT(T2.Location_ID)
+FROM tbl_Locations AS T1
+INNER JOIN tbl_Events AS T2
+  ON T1.Location_ID = T2.Location_ID
+GROUP BY
+  T1.Loc_Name
+ORDER BY
+  COUNT(T2.Location_ID) DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-1</v>
+        <v>268</v>
       </c>
       <c r="H149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6611,21 +6704,38 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Site_Name,
+  T1.Site_Desc,
+  COUNT(T3.Location_ID)
+FROM tbl_Sites AS T1
+JOIN tbl_Locations AS T2
+  ON T1.Site_ID = T2.Site_ID
+JOIN tbl_Events AS T3
+  ON T2.Location_ID = T3.Location_ID
+GROUP BY
+  T1.Site_ID
+ORDER BY
+  COUNT(T3.Location_ID) DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>327</v>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6763,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B' </t>
+          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B'  </t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -6692,7 +6802,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta' </t>
+          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta'  </t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -6731,7 +6841,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type </t>
+          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type  </t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -6763,21 +6873,37 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Site_Name,
+  COUNT(T2.Loc_Type)
+FROM tbl_Sites AS T1
+INNER JOIN tbl_Locations AS T2
+  ON T1.Site_ID = T2.Site_ID
+WHERE
+  T2.Loc_Type = 'Infestation'
+GROUP BY
+  T1.Site_Name
+ORDER BY
+  COUNT(T2.Loc_Type) DESC
+LIMIT 10;</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>281</v>
       </c>
       <c r="H154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6931,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -6844,7 +6970,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -6883,7 +7009,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes' </t>
+          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes'  </t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -6924,7 +7050,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924'  </t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -6963,7 +7089,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology </t>
+          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology  </t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -7013,18 +7139,18 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where year(Start_Date) = 2015 and month(Start_Date) = 7 </t>
+          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2015-07-01') and date(Start_Date) &lt;= date('2015-07-31')  </t>
         </is>
       </c>
       <c r="G160" t="n">
         <v>334</v>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7052,7 +7178,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90 </t>
+          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90  </t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -7098,18 +7224,18 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Event_Date) EventsYear, count(*) eventCount from tbl_events group by year(Event_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Event_Date) EventsYear, count(*) eventCount from tbl_events group by strftime('%Y', Event_Date)  </t>
         </is>
       </c>
       <c r="G162" t="n">
         <v>191</v>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7263,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a' </t>
+          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a'  </t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -7176,7 +7302,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail' </t>
+          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail'  </t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -7215,18 +7341,18 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where year(event_date) = 2001 </t>
+          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where strftime('%Y', Event_Date) = '2001'  </t>
         </is>
       </c>
       <c r="G165" t="n">
         <v>228</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7262,7 +7388,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30 </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30  </t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -7301,7 +7427,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16) </t>
+          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16)  </t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -7340,7 +7466,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra' </t>
+          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra'  </t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -7379,7 +7505,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -7413,27 +7539,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SELECT
-  T1.Location_ID,
-  AVG(T2.Density)
-FROM tbl_Events AS T1
-INNER JOIN tbl_Seedlings AS T2
+          <t>SELECT T2.Location_ID, AVG(T1.Density)
+FROM tbl_Seedlings AS T1
+INNER JOIN tbl_Events AS T2
   ON T1.Event_ID = T2.Event_ID
 INNER JOIN tlu_PlantSpecies AS T3
-  ON T2.SpCode = T3.SpeciesCode
+  ON T1.SpCode = T3.SpeciesCode
 WHERE
   T3.genus = 'Acer'
 GROUP BY
-  T1.Location_ID;</t>
+  T2.Location_ID;</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID  </t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
@@ -7468,7 +7592,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN' </t>
+          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN'  </t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -7507,7 +7631,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144 </t>
+          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144  </t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7555,7 +7679,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond </t>
+          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond  </t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -7601,7 +7725,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -7633,21 +7757,29 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SELECT Witness_SpCode, Witness_DBH
+FROM tbl_WitnessTrees
+WHERE Location_ID != 4
+ORDER BY ABS(Witness_DBH - Witness_stake) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc </t>
+          <t xml:space="preserve">select  Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc limit 1 </t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-1</v>
+        <v>226</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -7675,7 +7807,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant' </t>
+          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant'  </t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -7725,7 +7857,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -7774,7 +7906,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope' </t>
+          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope'  </t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -7820,7 +7952,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48 </t>
+          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48  </t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -7859,7 +7991,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -7893,16 +8025,16 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM tlu_DecayStage</t>
+          <t>SELECT COUNT(*) FROM tlu_DecayStage;</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_DecayStage </t>
+          <t xml:space="preserve">select count(*) from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
@@ -7937,7 +8069,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%' </t>
+          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%'  </t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -7976,7 +8108,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%' </t>
+          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%'  </t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -8008,21 +8140,30 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SELECT genus, COUNT(*) AS count
+FROM tlu_PlantSpecies
+WHERE SpeciesNotes LIKE '%native%'
+GROUP BY genus
+ORDER BY count DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc </t>
+          <t xml:space="preserve">select  genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc limit 5 </t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-1</v>
+        <v>205</v>
       </c>
       <c r="H184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8052,18 +8193,18 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where year(release_date) = 2015 </t>
+          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where date(release_date) &gt;= date('2015-01-01') AND date(release_date) &lt;= date('2015-12-31')  </t>
         </is>
       </c>
       <c r="G185" t="n">
         <v>248</v>
       </c>
       <c r="H185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8232,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_Slope_Shape </t>
+          <t xml:space="preserve">select count(*) from tlu_Slope_Shape  </t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -8139,18 +8280,18 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where year(Event_Date) = 1999 group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where strftime('%Y', Event_Date) = '1999' group by Location_ID  </t>
         </is>
       </c>
       <c r="G187" t="n">
         <v>267</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8174,7 +8315,7 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>SELECT
-  strftime('%Y-%m', T1.Event_Date) AS month,
+  STRFTIME('%Y-%m', T1.Event_Date) AS month,
   AVG(T2.DBH)
 FROM tbl_Events AS T1
 INNER JOIN tbl_Overstory AS T2
@@ -8189,11 +8330,11 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve">select month(e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by month(e.Event_Date) </t>
+          <t xml:space="preserve">select strftime('%m', e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by strftime('%m', e.Event_Date)  </t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -8228,7 +8369,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer  </t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -8267,7 +8408,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer  </t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -8306,7 +8447,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state </t>
+          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state  </t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -8338,21 +8479,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SELECT Name, County, State, utmE, utmN FROM tlu_PlaceNames ORDER BY utmN DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc </t>
+          <t xml:space="preserve">select  Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc limit 1 </t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8534,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text </t>
+          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text  </t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -8438,7 +8583,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations </t>
+          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations  </t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8470,21 +8615,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SELECT T1.genus, T1.species, T1.CommonName FROM tlu_PlantSpecies AS T1 INNER JOIN tbl_Seedlings AS T2 ON T1.SpeciesCode = T2.SpCode ORDER BY T2.Density DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc </t>
+          <t xml:space="preserve">select  Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc limit 1 </t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-1</v>
+        <v>236</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8505,21 +8654,34 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SELECT
+  STRFTIME('%Y-%m', T1.Event_Date)
+FROM tbl_Events AS T1
+INNER JOIN tbl_Seedlings AS T2
+  ON T1.Event_ID = T2.Event_ID
+GROUP BY
+  STRFTIME('%Y-%m', T1.Event_Date)
+ORDER BY
+  AVG(T2.Density) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 month(Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by month(Event_Date) order by avg(Density) desc </t>
+          <t xml:space="preserve">select  strftime('%m', Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by strftime('%m', Event_Date) order by avg(Density) desc limit 1  </t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>-1</v>
+        <v>252</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8718,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName </t>
+          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName  </t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -8608,7 +8770,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName </t>
+          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName  </t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -8647,7 +8809,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1' </t>
+          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1'  </t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -8686,7 +8848,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%' </t>
+          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%'  </t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -8728,7 +8890,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory) </t>
+          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory)  </t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -8767,7 +8929,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV  </t>
         </is>
       </c>
       <c r="G202" t="n">
@@ -8808,7 +8970,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE  </t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -8847,7 +9009,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH </t>
+          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH  </t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -8886,7 +9048,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT  </t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -8925,7 +9087,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1  </t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -8968,7 +9130,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3  </t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -9007,7 +9169,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT </t>
+          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT  </t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -9046,7 +9208,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY </t>
+          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY  </t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -9089,7 +9251,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500  </t>
         </is>
       </c>
       <c r="G210" t="n">
@@ -9124,23 +9286,23 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>SELECT
-  T1.Make,
-  T1.Model,
-  T2.CURBWT
-FROM VPICDECODE AS T1
-JOIN GV AS T2
-  ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
+  VPICDECODE.Make,
+  VPICDECODE.Model,
+  GV.CURBWT
+FROM GV
+JOIN VPICDECODE
+  ON GV.CASEID = VPICDECODE.CASEID AND GV.VEHNO = VPICDECODE.VEHNO
 WHERE
-  T2.CURBWT BETWEEN 2000 AND 3000;</t>
+  GV.CURBWT BETWEEN 2000 AND 3000;</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000 </t>
+          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000  </t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H211" t="b">
         <v>1</v>
@@ -9175,7 +9337,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE </t>
+          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE  </t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -9214,7 +9376,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND </t>
+          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND  </t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -9257,7 +9419,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3  </t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -9296,7 +9458,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD </t>
+          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD  </t>
         </is>
       </c>
       <c r="G215" t="n">
@@ -9331,25 +9493,27 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>SELECT
+  GV.VEHNO,
   GV.SPEEDLIMIT,
-  MAX(EDRPRECRASH.PVALUE),
-  MAX(EDRPRECRASH.PVALUE) - GV.SPEEDLIMIT
+  MAX(EDRPRECRASH.PVALUE) AS MaxSpeed,
+  GV.SPEEDLIMIT - MAX(EDRPRECRASH.PVALUE) AS SpeedDifference
 FROM GV
 JOIN EDRPRECRASH
   ON GV.CASEID = EDRPRECRASH.CASEID AND GV.VEHNO = EDRPRECRASH.VEHNO
 WHERE
-  EDRPRECRASH.PCODE = 1010 AND GV.SPEEDLIMIT &lt; 300 AND EDRPRECRASH.PVALUE &lt; 300
+  GV.SPEEDLIMIT &lt; 300 AND MAX(EDRPRECRASH.PVALUE) &lt; 300
 GROUP BY
-  GV.VEHNO;</t>
+  GV.VEHNO,
+  GV.SPEEDLIMIT;</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300 </t>
+          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300  </t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -9384,7 +9548,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120 </t>
+          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120  </t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -9427,7 +9591,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3  </t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -9466,7 +9630,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -9505,7 +9669,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -9544,7 +9708,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392  </t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -9583,7 +9747,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387 </t>
+          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387  </t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -9622,7 +9786,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -9661,7 +9825,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -9700,7 +9864,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999 </t>
+          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999  </t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -9739,7 +9903,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -9780,7 +9944,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -9828,7 +9992,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE  </t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -9860,21 +10024,31 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SELECT T2.Make
+FROM INJURY AS T1
+INNER JOIN VPICDECODE AS T2
+  ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
+GROUP BY T2.Make
+ORDER BY COUNT(T1.CASEID) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) </t>
+          <t xml:space="preserve">SELECT  MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) limit 1 </t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-1</v>
+        <v>232</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -9902,7 +10076,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000 </t>
+          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000  </t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -9941,7 +10115,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600  </t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -9975,16 +10149,18 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SELECT AVG(SCENEDEP) FROM EMSCARE WHERE SCENEDEP &lt;= 1600;</t>
+          <t>SELECT AVG(SCENEDEP)
+FROM EMSCARE
+WHERE SCENEDEP &lt;= 1600;</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600  </t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H232" t="b">
         <v>1</v>
@@ -10019,7 +10195,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600  </t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -10066,7 +10242,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1 </t>
+          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1  </t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -10105,7 +10281,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA' </t>
+          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA'  </t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -10144,7 +10320,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR </t>
+          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR  </t>
         </is>
       </c>
       <c r="G236" t="n">
@@ -10176,21 +10352,29 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SELECT Make
+FROM VPICDECODE
+GROUP BY Make
+ORDER BY AVG(ModelYear)
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC </t>
+          <t xml:space="preserve">SELECT  MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC limit 1 </t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-1</v>
+        <v>167</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -10213,20 +10397,16 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>SELECT
-  COUNT(DRPRESENT)
-FROM GV
-WHERE
-  DRPRESENT = 0;</t>
+          <t>SELECT COUNT(*) FROM GV WHERE DRPRESENT = 0;</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0  </t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -10257,19 +10437,19 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>SELECT
-  COUNT(*)
+  COUNT(GV.ZIP)
 FROM GV
 WHERE
-  ZIP = 95020;</t>
+  GV.ZIP = 95020;</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020  </t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -10304,7 +10484,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST </t>
+          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST  </t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -10343,7 +10523,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING </t>
+          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING  </t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -10387,7 +10567,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE </t>
+          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE  </t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -10430,11 +10610,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1  </t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -10462,21 +10642,30 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>SELECT RECFRONT1
+FROM TIREPLAC
+WHERE RECFRONT1 != '9999999999'
+GROUP BY RECFRONT1
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-1</v>
+        <v>203</v>
       </c>
       <c r="H244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10501,25 +10690,23 @@
         <is>
           <t>SELECT
   COUNT(GLAZLOC)
-FROM GLAZING
-WHERE
-  GLAZLOC = 1;</t>
+FROM GLAZING;</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1  </t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="H245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10734,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP </t>
+          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP  </t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -10583,18 +10770,18 @@
         <is>
           <t>SELECT
   COUNT(DISTINCT id)
-FROM ADAPT
+FROM events
 WHERE
-  equipment = 'Aftermarket';</t>
+  "adapt" = 'Y';</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT </t>
+          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT  </t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H247" t="b">
         <v>0</v>
@@ -10622,21 +10809,29 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SELECT
+  MAX(PVALUE)
+FROM EDRPOSTCRASH
+WHERE
+  PCODE = 11;</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC </t>
+          <t xml:space="preserve">SELECT  PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC limit 1 </t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-1</v>
+        <v>174</v>
       </c>
       <c r="H248" t="b">
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -10664,7 +10859,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH </t>
+          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH  </t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -10700,25 +10895,24 @@
         <is>
           <t>SELECT CASEID, MAX(PVALUE)
 FROM EDRPRECRASH
-WHERE PCODE = 1010
-AND CASEID IN (SELECT CASEID FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt;= 200)
+WHERE PCODE = 1 AND CASEID IN (SELECT CASEID FROM EDRPRECRASH WHERE PCODE = 1 AND PVALUE &gt; 100 AND PVALUE &lt;= 200)
 GROUP BY CASEID;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID </t>
+          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID  </t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="H250" t="b">
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10750,15 +10944,13 @@
 JOIN VPICDECODE
   ON EDRPRECRASH.CASEID = VPICDECODE.CASEID AND EDRPRECRASH.VEHNO = VPICDECODE.VEHNO
 WHERE
-  EDRPRECRASH.PCODE = 1010
+  EDRPRECRASH.PCODE = 1
   AND EDRPRECRASH.CASEID IN (
     SELECT
       CASEID
     FROM EDRPRECRASH
     WHERE
-      PCODE = 1010
-      AND PVALUE &gt; 160
-      AND PVALUE &lt;= 300
+      PCODE = 1 AND PVALUE &gt; 160 AND PVALUE &lt;= 300
   )
 GROUP BY
   EDRPRECRASH.CASEID,
@@ -10770,11 +10962,11 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC </t>
+          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC  </t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>487</v>
+        <v>415</v>
       </c>
       <c r="H251" t="b">
         <v>0</v>
@@ -10809,7 +11001,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE  </t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -10848,7 +11040,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS  </t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -10882,16 +11074,16 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>SELECT body_region, COUNT(*) FROM ICS GROUP BY body_region</t>
+          <t>SELECT BodyRegion, COUNT(*) FROM ICS GROUP BY BodyRegion</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI </t>
+          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI  </t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H254" t="b">
         <v>0</v>
@@ -10926,7 +11118,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130 </t>
+          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130  </t>
         </is>
       </c>
       <c r="G255" t="n">
@@ -10965,7 +11157,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC </t>
+          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC  </t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -11008,7 +11200,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1  </t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -11051,7 +11243,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1  </t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -11094,7 +11286,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1) </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1)  </t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -11128,20 +11320,18 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>SELECT
-  COUNT(*)
+          <t>SELECT COUNT(*)
 FROM OCC
-WHERE
-  BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) AND BELTUSE IN (0, 1);</t>
+WHERE BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) AND BELTUSE IN (0, 1);</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8)  </t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H260" t="b">
         <v>1</v>
@@ -11176,7 +11366,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE </t>
+          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE  </t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -11217,7 +11407,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE </t>
+          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE  </t>
         </is>
       </c>
       <c r="G262" t="n">
@@ -11260,7 +11450,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210  </t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -11303,7 +11493,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90  </t>
         </is>
       </c>
       <c r="G264" t="n">
@@ -11335,21 +11525,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>SELECT MAX(CMAX) FROM CDC WHERE CMAX NOT IN (888, 999)</t>
+        </is>
+      </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC </t>
+          <t xml:space="preserve">SELECT  CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC limit 1 </t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-1</v>
+        <v>172</v>
       </c>
       <c r="H265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11381,11 +11575,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1  </t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -11419,16 +11613,20 @@
   COUNT(DISTINCT VEHNO)
 FROM CDC
 WHERE
-  DAMOTHPILLAR = 1;</t>
+  DAMOTHPILLAR NOT IN (
+    1,
+    2,
+    3
+  );</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1  </t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -11463,7 +11661,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -11495,21 +11693,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>SELECT MAX(DVBARRIER) FROM CDC WHERE DVBARRIER != 999</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC </t>
+          <t xml:space="preserve">SELECT  DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC limit 1 </t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-1</v>
+        <v>185</v>
       </c>
       <c r="H269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11562,7 +11764,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -11598,23 +11800,24 @@
         <is>
           <t>SELECT CASEID, VEHNO, EDRSUMMNO
 FROM EDREVENT
-WHERE CASEID IN (SELECT CASEID FROM EDREVENT GROUP BY CASEID HAVING COUNT(*) = 10);</t>
+GROUP BY CASEID, VEHNO, EDRSUMMNO
+HAVING COUNT(*) = 10;</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10  </t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11642,8 +11845,6 @@
   EDRPRECRASH.EDREVENTNO,
   COUNT(EDRPRECRASH.EDREVENTNO)
 FROM EDRPRECRASH
-JOIN EDREVENT
-  ON EDRPRECRASH.CASEID = EDREVENT.CASEID AND EDRPRECRASH.EDREVENTNO = EDREVENT.EDREVENTNO
 GROUP BY
   EDRPRECRASH.CASEID,
   EDRPRECRASH.EDREVENTNO;</t>
@@ -11651,18 +11852,18 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY CASEID </t>
+          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY EV.CASEID  </t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11902,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC  </t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -11744,7 +11945,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400  </t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -11786,7 +11987,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC  </t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -11832,7 +12033,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE </t>
+          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE  </t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -11878,7 +12079,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX </t>
+          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX  </t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -11924,7 +12125,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC  </t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -11958,14 +12159,16 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT CASEID)
-FROM Vehicle
-WHERE CRASH_AVOIDANCE = 1;</t>
+          <t>SELECT
+  COUNT(DISTINCT CASEID)
+FROM Aircraft
+WHERE
+  AVAIL = 1;</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1  </t>
         </is>
       </c>
       <c r="G279" t="n">
@@ -11997,21 +12200,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>SELECT EQUIP FROM aircraft_accidents GROUP BY EQUIP ORDER BY COUNT(*) DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-1</v>
+        <v>160</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12248,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T  </t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -12082,7 +12289,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T  </t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -12125,7 +12332,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000  </t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -12164,7 +12371,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000 </t>
+          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000  </t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -12203,7 +12410,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000 </t>
+          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000  </t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -12244,7 +12451,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1  </t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -12290,7 +12497,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX' </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX'  </t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -12338,7 +12545,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012  </t>
         </is>
       </c>
       <c r="G288" t="n">
@@ -12381,7 +12588,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -12423,7 +12630,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -12465,7 +12672,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G291" t="n">
@@ -12515,7 +12722,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G292" t="n">
@@ -12563,7 +12770,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1  </t>
         </is>
       </c>
       <c r="G293" t="n">
@@ -12614,7 +12821,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1  </t>
         </is>
       </c>
       <c r="G294" t="n">
@@ -12646,21 +12853,38 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Make
+FROM VPICDECODE AS T1
+INNER JOIN TIRE AS T2
+  ON T1.CASEID = T2.CASEID AND T1.VEHNO = T2.VEHNO
+INNER JOIN TIREPLAC AS T3
+  ON T1.CASEID = T3.CASEID AND T1.VEHNO = T3.VEHNO
+WHERE
+  T2.TIRELOC = 'LF' AND T2.TIRESIZE != T3.RECFRONT1
+GROUP BY
+  T1.Make
+ORDER BY
+  COUNT(T1.Make) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC </t>
+          <t xml:space="preserve">SELECT  MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC limit 1 </t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>-1</v>
+        <v>353</v>
       </c>
       <c r="H295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12914,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D  </t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -12733,7 +12957,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID  </t>
         </is>
       </c>
       <c r="G297" t="n">
@@ -12783,7 +13007,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC  </t>
         </is>
       </c>
       <c r="G298" t="n">
@@ -12820,10 +13044,10 @@
           <t>SELECT
   V.Make,
   V.Model,
-  COUNT(DISTINCT C.CASEID) AS ChildSeatCount,
-  COUNT(DISTINCT D.CASEID) AS DistractedDriverCount
+  COUNT(DISTINCT C.CASEID) AS childseat_count,
+  COUNT(DISTINCT D.CASEID) AS distracted_count
 FROM VPICDECODE AS V
-LEFT JOIN CHILDSEAT AS C
+JOIN CHILDSEAT AS C
   ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO
 LEFT JOIN DISTRACT AS D
   ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO
@@ -12834,18 +13058,18 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC  </t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -12884,7 +13108,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC  </t>
         </is>
       </c>
       <c r="G300" t="n">
@@ -12934,7 +13158,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC  </t>
         </is>
       </c>
       <c r="G301" t="n">
@@ -12975,23 +13199,24 @@
 FROM Accountability_Levels AS T1
 INNER JOIN (
   SELECT
+    INSTITUTION_ID,
     ENTITY_NAME
   FROM Accountability_Levels
   WHERE
     SUBGROUP_NAME = 'Multiracial' AND INDICATOR = 'HS Grad Rate'
 ) AS T2
-  ON T1.ENTITY_NAME = T2.ENTITY_NAME
+  ON T1.INSTITUTION_ID = T2.INSTITUTION_ID AND T1.ENTITY_NAME = T2.ENTITY_NAME
 WHERE
   T1.SUBGROUP_NAME = 'Multiracial' AND T1.INDICATOR = 'HS Grad Rate' AND T1.ENTITY_NAME LIKE '%friendship%';</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%' </t>
+          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%'  </t>
         </is>
       </c>
       <c r="G302" t="n">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="H302" t="b">
         <v>1</v>
@@ -13027,23 +13252,25 @@
 INNER JOIN Annual_EM_ELA AS T2
   ON T1.ENTITY_NAME = T2.ENTITY_NAME
 WHERE
-  T1.YEAR = 2021 AND T1.ASSESSMENT_NAME = 'ELA4' AND T1.ENTITY_NAME = 'PEMBROKE INTERMEDIATE SCHOOL';</t>
+  T1.YEAR = 2021 AND T1.ASSESSMENT_NAME = 'ELA4' AND T1.ENTITY_NAME = 'PEMBROKE INTERMEDIATE SCHOOL'
+GROUP BY
+  T1.SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021  </t>
         </is>
       </c>
       <c r="G303" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H303" t="b">
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -13075,7 +13302,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022 </t>
+          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022  </t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -13120,7 +13347,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022  </t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -13171,7 +13398,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022  </t>
         </is>
       </c>
       <c r="G306" t="n">
@@ -13212,12 +13439,12 @@
 INNER JOIN ACC_HS_Graduation_Rate AS T2
   ON T1.INSTITUTION_ID = T2.INSTITUTION_ID AND T1.YEAR = T2.YEAR AND T1.SUBGROUP_NAME = T2.SUBGROUP_NAME
 WHERE
-  T1.ENTITY_NAME = 'Brooklyn Collegiate' AND T1.YEAR = '2022' AND T1.SUBGROUP_NAME = 'All Students';</t>
+  T1.YEAR = '2022' AND T1.ENTITY_NAME = 'Brooklyn Collegiate' AND T1.SUBGROUP_NAME = 'All Students';</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022 </t>
+          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022  </t>
         </is>
       </c>
       <c r="G307" t="n">
@@ -13257,18 +13484,16 @@
   ABSENT_RATE
 FROM ACC_EM_Chronic_Absenteeism
 WHERE
-  ENTITY_NAME = 'Kenney Middle School'
-  AND YEAR = '2021'
-  AND SUBGROUP_NAME = 'Students with Disabilities';</t>
+  ENTITY_NAME = 'Kenney Middle School' AND YEAR = '2021' AND SUBGROUP_NAME = 'Students with Disabilities';</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities' </t>
+          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities'  </t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H308" t="b">
         <v>0</v>
@@ -13315,7 +13540,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I' </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I'  </t>
         </is>
       </c>
       <c r="G309" t="n">
@@ -13351,23 +13576,23 @@
         <is>
           <t>SELECT
   A.OVERALL_STATUS,
-  COUNT(DISTINCT A.ENTITY_CD)
+  COUNT(A.ENTITY_CD)
 FROM Accountability_Status AS A
 JOIN Institution_Grouping AS I
   ON A.ENTITY_CD = I.ENTITY_CD
 WHERE
-  A.YEAR = '2022' AND I.GROUP_NAME = 'public school'
+  A.YEAR = '2022'
 GROUP BY
   A.OVERALL_STATUS;</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status </t>
+          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status  </t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -13407,7 +13632,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022 </t>
+          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022  </t>
         </is>
       </c>
       <c r="G311" t="n">
@@ -13452,7 +13677,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities'  </t>
         </is>
       </c>
       <c r="G312" t="n">
@@ -13492,16 +13717,16 @@
 INNER JOIN ACC_EM_Core_and_Weighted_Performance AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T1.GROUP_NAME = 'Public School' AND T2.SUBGROUP_NAME &lt;&gt; 'Students With Disabilities';</t>
+  T1.GROUP_NAME = 'Public Elementary' AND T2.SUBGROUP_NAME &lt;&gt; 'Students With Disabilities';</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where not exists ( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities' and p.ENTITY_CD = q.ENTITY_CD ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where p.ENTITY_CD NOT IN( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities'  ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -13537,23 +13762,23 @@
 INNER JOIN Institution_Grouping AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T1.SUBGROUP_NAME = 'Multiracial' AND T2.GROUP_NAME = 'Public School';</t>
+  T1.SUBGROUP_NAME = 'Multiracial' AND T2.GROUP_NAME = 'Public Elementary School';</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="H314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -13588,7 +13813,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%' </t>
+          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%'  </t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -13628,23 +13853,23 @@
 INNER JOIN ACC_EM_ELP AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T1.GROUP_NAME = 'Public School' AND T2.SUBGROUP_NAME = 'White' AND T2.ELL_COUNT != '0';</t>
+  T1.GROUP_NAME = 'Public Elementary School' AND T2.SUBGROUP_NAME = 'White' AND T2.ELL_COUNT != '0';</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G316" t="n">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="H316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13899,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -13710,110 +13935,107 @@
         <is>
           <t>SELECT
   COUNT(DISTINCT T1.ENTITY_CD)
-FROM Institution_Grouping AS T1
+FROM ACC_EM_NYSESLAT_for_Participation AS T1
+INNER JOIN Institution_Grouping AS T2
+  ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE
+  T2.GROUP_NAME = 'Public Elementary' AND T1.NYSESLAT_PART = 0;</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>277</v>
+      </c>
+      <c r="H318" t="b">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>full tuple compare failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>NYSED_SRC2022</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>17</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-lite-001</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(DISTINCT SUBJECT) FROM ACC_EM_NYSESLAT_for_Participation;</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation]  </t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>183</v>
+      </c>
+      <c r="H319" t="b">
+        <v>1</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>full tuple compare succeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>NYSED_SRC2022</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>18</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-lite-001</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>SELECT DISTINCT
+  T1.ENTITY_NAME
+FROM ACC_EM_ELP AS T1
 INNER JOIN ACC_EM_NYSESLAT_for_Participation AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T1.GROUP_NAME = 'public school' AND T2.NYSESLAT_PART = 0;</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
-        </is>
-      </c>
-      <c r="G318" t="n">
-        <v>319</v>
-      </c>
-      <c r="H318" t="b">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>full tuple compare failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>NYSED_SRC2022</t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>17</v>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-lite-001</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>SELECT COUNT(DISTINCT SUBJECT) FROM ACC_EM_NYSESLAT_for_Participation;</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation] </t>
-        </is>
-      </c>
-      <c r="G319" t="n">
-        <v>183</v>
-      </c>
-      <c r="H319" t="b">
-        <v>1</v>
-      </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>full tuple compare succeeded</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>NYSED_SRC2022</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>18</v>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-lite-001</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>SELECT DISTINCT
-  T1.ENTITY_NAME
-FROM Institution_Grouping AS T1
-INNER JOIN ACC_EM_ELP AS T2
-  ON T1.ENTITY_CD = T2.ENTITY_CD
-LEFT JOIN ACC_EM_NYSESLAT_for_Participation AS T3
-  ON T1.ENTITY_CD = T3.ENTITY_CD
-WHERE
-  T1.GROUP_NAME = 'Public School'
-  AND T2.LEVEL = '2'
-  AND T2.SUBGROUP_NAME = 'All Students'
-  AND T2.ELL_COUNT != '0'
-  AND T3.NYSESLAT_PART IS NULL;</t>
+  T1.SUBGROUP_NAME = 'All Students'
+  AND T1.LEVEL = '2'
+  AND T1.ELL_COUNT != '0'
+  AND T2.NYSESLAT_PART = 0;</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>467</v>
+        <v>387</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
@@ -13853,7 +14075,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022  </t>
         </is>
       </c>
       <c r="G321" t="n">
@@ -13893,16 +14115,16 @@
 INNER JOIN Institution_Grouping AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T2.GROUP_NAME = 'public school' AND T1.MET_95_PERCENT = 'Yes';</t>
+  T2.GROUP_NAME = 'Public Elementary' AND T1.MET_95_PERCENT = 'Yes';</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -13932,28 +14154,23 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SELECT AVG(CAST(T1.RATE AS REAL))
-FROM ACC_EM_Participation_Rate AS T1
-INNER JOIN Institution_Grouping AS T2
-  ON T1.ENTITY_CD = T2.ENTITY_CD
-WHERE
-  T2.GROUP_NAME = 'Public School' AND T1.RATE != 's';</t>
+          <t>SELECT AVG(REPLACE(RATE, ',', '')) FROM ACC_EM_Participation_Rate WHERE ENTITY_CD IN (SELECT ENTITY_CD FROM Institution_Grouping WHERE GROUP_NAME = 'Public Elementary School') AND RATE != 's'</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="H323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -13977,118 +14194,129 @@
       <c r="E324" t="inlineStr">
         <is>
           <t>SELECT
-  T1.SUBJECT,
-  AVG(CAST(REPLACE(T1.ABSENT_RATE, 's', '') AS REAL))
+  SUBJECT,
+  AVG(REPLACE(ABSENT_RATE, ',', ''))
+FROM ACC_EM_Chronic_Absenteeism
+WHERE
+  ENTITY_CD IN (
+    SELECT
+      ENTITY_CD
+    FROM Institution_Grouping
+    WHERE
+      GROUP_NAME = 'Public High School'
+  )
+  AND ABSENT_RATE != 's'
+GROUP BY
+  SUBJECT;</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject  </t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>283</v>
+      </c>
+      <c r="H324" t="b">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>asymmetrical tuple result size</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>NYSED_SRC2022</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>23</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-lite-001</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>SELECT ENTITY_NAME
+FROM ACC_EM_Chronic_Absenteeism
+WHERE SUBGROUP_NAME = 'Students With Disabilities' AND ABSENT_RATE != 's'
+ORDER BY CAST(ABSENT_RATE AS REAL)
+LIMIT 1;</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select  entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc limit 1 </t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>240</v>
+      </c>
+      <c r="H325" t="b">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>empty result set</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>NYSED_SRC2022</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>24</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-lite-001</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.ENTITY_NAME,
+  T1.SUBGROUP_NAME,
+  T1.ENROLLMENT
 FROM ACC_EM_Chronic_Absenteeism AS T1
 INNER JOIN Institution_Grouping AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T2.GROUP_NAME = 'Public School'
-  AND T1.SUBJECT LIKE 'High School%'
-  AND T1.ABSENT_RATE != 's'
-GROUP BY
-  T1.SUBJECT;</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject </t>
-        </is>
-      </c>
-      <c r="G324" t="n">
-        <v>382</v>
-      </c>
-      <c r="H324" t="b">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>asymmetrical tuple result size</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>NYSED_SRC2022</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>23</v>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-lite-001</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select top 1 entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc </t>
-        </is>
-      </c>
-      <c r="G325" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H325" t="b">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr">
-        <is>
-          <t>empty result set</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>NYSED_SRC2022</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>24</v>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-lite-001</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>SELECT
-  T1.ENTITY_NAME,
-  T2.SUBGROUP_NAME,
-  T2.ENROLLMENT
-FROM Institution_Grouping AS T1
-INNER JOIN ACC_EM_Chronic_Absenteeism AS T2
-  ON T1.ENTITY_CD = T2.ENTITY_CD
-WHERE
-  T1.GROUP_NAME = 'Public School' AND T2.YEAR = '2022' AND T2.ABSENT_RATE != 's'
+  T1.YEAR = '2022' AND T2.GROUP_NAME = 'Public Elementary School' AND T1.ABSENT_RATE != 's'
 ORDER BY
-  CAST(T2.ABSENT_RATE AS REAL) DESC
+  REPLACE(T1.ABSENT_RATE, ',', '') DESC
 LIMIT 1;</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school' </t>
+          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school'  </t>
         </is>
       </c>
       <c r="G326" t="n">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>empty result set</t>
         </is>
       </c>
     </row>
@@ -14113,30 +14341,30 @@
         <is>
           <t>SELECT
   T1.SUBGROUP_NAME,
-  AVG(CAST(REPLACE(T1.ABSENT_RATE, 's', '') AS REAL))
+  AVG(REPLACE(T1.ABSENT_RATE, ',', ''))
 FROM ACC_HS_Chronic_Absenteeism AS T1
 INNER JOIN Institution_Grouping AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T2.GROUP_NAME = 'Public School'
+  T2.GROUP_NAME = 'Public School' AND T1.ABSENT_RATE != 's'
 GROUP BY
   T1.SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name  </t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="H327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -14157,21 +14385,45 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.ENTITY_NAME,
+  T1.ABSENT_COUNT,
+  T1.ABSENT_RATE
+FROM ACC_HS_Chronic_Absenteeism AS T1
+INNER JOIN (
+  SELECT
+    ENTITY_CD,
+    MAX(CAST(REPLACE(ENROLLMENT, ',', '') AS REAL)) AS max_enrollment
+  FROM ACC_HS_Chronic_Absenteeism
+  WHERE
+    YEAR = '2021' AND SUBGROUP_NAME = 'All Students' AND ENROLLMENT != 's'
+  GROUP BY
+    ENTITY_CD
+) AS T2
+  ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE
+  T1.YEAR = '2021' AND T1.SUBGROUP_NAME = 'All Students' AND T1.ENROLLMENT != 's'
+ORDER BY
+  T2.max_enrollment DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc </t>
+          <t xml:space="preserve">select  entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>-1</v>
+        <v>459</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -14206,7 +14458,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G329" t="n">
@@ -14238,21 +14490,34 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.ENTITY_NAME
+FROM ACC_HS_Core_and_Weighted_Performance AS T1
+INNER JOIN Institution_Grouping AS T2
+  ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE
+  T1.SUBJECT = 'Mathematics' AND T1.SUBGROUP_NAME = 'All Students' AND T1.YEAR = '2022' AND T2.GROUP_NAME = 'Public High School' AND T1.WEIGHTED_INDEX != 's'
+ORDER BY
+  REPLACE(T1.WEIGHTED_INDEX, ',', '') DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc </t>
+          <t xml:space="preserve">select  p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc limit 5 </t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>-1</v>
+        <v>375</v>
       </c>
       <c r="H330" t="b">
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14273,14 +14538,24 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>SELECT T1.ENTITY_NAME, AVG(REPLACE(T1.WEIGHTED_INDEX, ',', ''))
+FROM ACC_HS_Core_and_Weighted_Performance AS T1
+INNER JOIN Institution_Grouping AS T2 ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE T1.SUBJECT = 'Science' AND T2.GROUP_NAME = 'Public School District' AND T1.WEIGHTED_INDEX != 's'
+GROUP BY T1.ENTITY_NAME
+ORDER BY AVG(REPLACE(T1.WEIGHTED_INDEX, ',', ''))
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc </t>
+          <t xml:space="preserve">select  entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc limit 5 </t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>-1</v>
+        <v>345</v>
       </c>
       <c r="H331" t="b">
         <v>0</v>
@@ -14325,7 +14600,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022 </t>
+          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022  </t>
         </is>
       </c>
       <c r="G332" t="n">
@@ -14360,31 +14635,29 @@
       <c r="E333" t="inlineStr">
         <is>
           <t>SELECT
-  T1.SUBGROUP_NAME,
-  AVG(CAST(T1.ELL_COUNT AS REAL))
-FROM ACC_HS_ELP AS T1
-INNER JOIN Institution_Grouping AS T2
-  ON T1.ENTITY_CD = T2.ENTITY_CD
+  SUBGROUP_NAME,
+  AVG(REPLACE(ELL_COUNT, ',', ''))
+FROM ACC_HS_ELP
 WHERE
-  T2.GROUP_NAME = 'Public School'
+  ENTITY_CD LIKE 'P%'
 GROUP BY
-  T1.SUBGROUP_NAME;</t>
+  SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name  </t>
         </is>
       </c>
       <c r="G333" t="n">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="H333" t="b">
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>empty result set</t>
         </is>
       </c>
     </row>
@@ -14405,21 +14678,36 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>SELECT
+  E.ENTITY_NAME,
+  A.ELL_COUNT,
+  E.PER_FED_STATE_LOCAL_EXP
+FROM Expenditures_per_Pupil AS E
+JOIN ACC_HS_ELP AS A
+  ON E.ENTITY_CD = A.ENTITY_CD AND E.YEAR = A.YEAR
+WHERE
+  E.YEAR = 2022 AND A.SUBGROUP_NAME = 'All Students'
+ORDER BY
+  CAST(REPLACE(A.ELL_COUNT, ',', '') AS REAL) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc </t>
+          <t xml:space="preserve">select  el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>-1</v>
+        <v>396</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14456,7 +14744,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS </t>
+          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS  </t>
         </is>
       </c>
       <c r="G335" t="n">
@@ -14499,7 +14787,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021 </t>
+          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G336" t="n">
@@ -14541,7 +14829,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD' </t>
+          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD'  </t>
         </is>
       </c>
       <c r="G337" t="n">
@@ -14576,85 +14864,94 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>SELECT
-  ASE.ASSESSMENT_NAME,
-  AVG(CAST(REPLACE(ASE."LEVEL1_%TESTED", 's', '') AS REAL)) AS avg_level1,
-  AVG(CAST(REPLACE(ASE."LEVEL2_%TESTED", 's', '') AS REAL)) AS avg_level2,
-  AVG(CAST(REPLACE(ASE."LEVEL3_%TESTED", 's', '') AS REAL)) AS avg_level3,
-  AVG(CAST(REPLACE(ASE."LEVEL4_%TESTED", 's', '') AS REAL)) AS avg_level4
-FROM Annual_EM_SCIENCE AS ASE
-JOIN Institution_Grouping AS IG
-  ON ASE.ENTITY_CD = IG.ENTITY_CD
-WHERE
-  IG.GROUP_NAME = 'Public School'
-GROUP BY
-  ASE.ASSESSMENT_NAME;</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME </t>
-        </is>
-      </c>
-      <c r="G338" t="n">
-        <v>475</v>
-      </c>
-      <c r="H338" t="b">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>asymmetrical tuple result size</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>NYSED_SRC2022</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>37</v>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-lite-001</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>SELECT
-  T1.SUBGROUP_NAME,
-  AVG(CAST(REPLACE(T1."LEVEL1_%TESTED", 's', '') AS REAL)) AS avg_level1,
-  AVG(CAST(REPLACE(T1."LEVEL2_%TESTED", 's', '') AS REAL)) AS avg_level2,
-  AVG(CAST(REPLACE(T1."LEVEL3_%TESTED", 's', '') AS REAL)) AS avg_level3,
-  AVG(CAST(REPLACE(T1."LEVEL4_%TESTED", 's', '') AS REAL)) AS avg_level4
+  T1.ASSESSMENT_NAME,
+  AVG(REPLACE(T1."LEVEL1_%TESTED", ',', '')) AS avg_level1,
+  AVG(REPLACE(T1."LEVEL2_%TESTED", ',', '')) AS avg_level2,
+  AVG(REPLACE(T1."LEVEL3_%TESTED", ',', '')) AS avg_level3,
+  AVG(REPLACE(T1."LEVEL4_%TESTED", ',', '')) AS avg_level4
 FROM Annual_EM_SCIENCE AS T1
 INNER JOIN Institution_Grouping AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T1.ASSESSMENT_NAME = 'Science8' AND T2.GROUP_NAME = 'Public School'
+  T2.GROUP_NAME = 'Public Elementary' AND T1."LEVEL1_%TESTED" != 's' AND T1."LEVEL2_%TESTED" != 's' AND T1."LEVEL3_%TESTED" != 's' AND T1."LEVEL4_%TESTED" != 's'
 GROUP BY
-  T1.SUBGROUP_NAME;</t>
+  T1.ASSESSMENT_NAME;</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME  </t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>454</v>
+      </c>
+      <c r="H338" t="b">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>empty result set</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>NYSED_SRC2022</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>37</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-lite-001</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>SELECT
+  SUBGROUP_NAME,
+  AVG(CAST(REPLACE(LEVEL1_'%TESTED', ',', '') AS REAL)) AS avg_level1,
+  AVG(CAST(REPLACE(LEVEL2_'%TESTED', ',', '') AS REAL)) AS avg_level2,
+  AVG(CAST(REPLACE(LEVEL3_'%TESTED', ',', '') AS REAL)) AS avg_level3,
+  AVG(CAST(REPLACE(LEVEL4_'%TESTED', ',', '') AS REAL)) AS avg_level4
+FROM Annual_EM_SCIENCE
+WHERE
+  ASSESSMENT_NAME = 'Science8'
+  AND ENTITY_CD IN (
+    SELECT
+      ENTITY_CD
+    FROM Institution_Grouping
+    WHERE
+      GROUP_NAME = 'Public Elementary School'
+  )
+  AND LEVEL1_'%TESTED' != 's'
+  AND LEVEL2_'%TESTED' != 's'
+  AND LEVEL3_'%TESTED' != 's'
+  AND LEVEL4_'%TESTED' != 's'
+GROUP BY
+  SUBGROUP_NAME;</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME  </t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14682,7 +14979,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT]  </t>
         </is>
       </c>
       <c r="G340" t="n">
@@ -14725,7 +15022,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G341" t="n">
@@ -14768,7 +15065,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G342" t="n">
@@ -14804,30 +15101,30 @@
         <is>
           <t>SELECT
   T1.SUBJECT,
-  AVG(CAST(REPLACE(T1.PER_ENT, ',', '') AS REAL))
+  AVG(REPLACE(T1.PER_ENT, 's', '0'))
 FROM Annual_NYSESLAT AS T1
 INNER JOIN Institution_Grouping AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T1.YEAR = 2021 AND T2.GROUP_NAME = 'public school' AND T1.PER_ENT != 's'
+  T1.YEAR = 2021 AND T2.GROUP_NAME = 'Public School'
 GROUP BY
   T1.SUBJECT;</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G343" t="n">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14852,34 +15149,64 @@
         <is>
           <t>SELECT
   T1.SUBJECT,
-  AVG(CAST(REPLACE(T1.PER_ENT, 's', '') AS REAL)) AS avg_per_ent,
-  AVG(CAST(REPLACE(T1.PER_EMER, 's', '') AS REAL)) AS avg_per_emer,
-  AVG(CAST(REPLACE(T1.PER_TRAN, 's', '') AS REAL)) AS avg_per_tran,
-  AVG(CAST(REPLACE(T1.PER_EXP, 's', '') AS REAL)) AS avg_per_exp,
-  AVG(CAST(REPLACE(T1.PER_COM, 's', '') AS REAL)) AS avg_per_com
+  AVG(
+    CASE
+      WHEN T1.PER_ENT != 's'
+      THEN CAST(T1.PER_ENT AS REAL)
+      ELSE NULL
+    END
+  ) AS avg_per_ent,
+  AVG(
+    CASE
+      WHEN T1.PER_EMER != 's'
+      THEN CAST(T1.PER_EMER AS REAL)
+      ELSE NULL
+    END
+  ) AS avg_per_emer,
+  AVG(
+    CASE
+      WHEN T1.PER_TRAN != 's'
+      THEN CAST(T1.PER_TRAN AS REAL)
+      ELSE NULL
+    END
+  ) AS avg_per_tran,
+  AVG(
+    CASE
+      WHEN T1.PER_EXP != 's'
+      THEN CAST(T1.PER_EXP AS REAL)
+      ELSE NULL
+    END
+  ) AS avg_per_exp,
+  AVG(
+    CASE
+      WHEN T1.PER_COM != 's'
+      THEN CAST(T1.PER_COM AS REAL)
+      ELSE NULL
+    END
+  ) AS avg_per_com
 FROM Annual_NYSESLAT AS T1
-INNER JOIN Institution_Grouping AS T2
+JOIN Institution_Grouping AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD
 WHERE
-  T1.YEAR = 2021 AND T2.GROUP_NAME = 'public school'
+  T1.YEAR = 2021 AND T2.GROUP_NAME = 'Public School'
 GROUP BY
   T1.SUBJECT;</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>549</v>
+        <v>594</v>
       </c>
       <c r="H344" t="b">
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14911,7 +15238,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G345" t="n">
@@ -14953,7 +15280,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -14995,7 +15322,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G347" t="n">
@@ -15031,10 +15358,10 @@
         <is>
           <t>SELECT
   T1.BOCES_NAME,
-  AVG(T2.PER_FEDERAL_EXP) AS avg_federal_exp,
-  AVG(T2.PER_STATE_LOCAL_EXP) AS avg_state_local_exp
+  AVG(T2.PER_FEDERAL_EXP),
+  AVG(T2.PER_STATE_LOCAL_EXP)
 FROM BOCES_and_N_RC AS T1
-JOIN Expenditures_per_Pupil AS T2
+INNER JOIN Expenditures_per_Pupil AS T2
   ON T1.ENTITY_CD = T2.ENTITY_CD AND T1.YEAR = T2.YEAR
 WHERE
   T1.YEAR = 2021
@@ -15044,11 +15371,11 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G348" t="n">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="H348" t="b">
         <v>0</v>
@@ -15083,7 +15410,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC] </t>
+          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC]  </t>
         </is>
       </c>
       <c r="G349" t="n">
@@ -15125,7 +15452,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1 </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1  </t>
         </is>
       </c>
       <c r="G350" t="n">
@@ -15170,7 +15497,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021 </t>
+          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021  </t>
         </is>
       </c>
       <c r="G351" t="n">
@@ -15202,21 +15529,36 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.ENTITY_CD,
+  T1.ENTITY_NAME,
+  T1.PER_TEACH_INEXP
+FROM Inexperienced_Teachers_and_Principals AS T1
+INNER JOIN Institution_Grouping AS T2
+  ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE
+  T1.YEAR = 2021 AND T2.GROUP_NAME = 'Public School'
+ORDER BY
+  T1.PER_TEACH_INEXP DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc </t>
+          <t xml:space="preserve">select  i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc limit 5 </t>
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-1</v>
+        <v>331</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15237,21 +15579,35 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.DISTRICT_NAME,
+  AVG(T2.PER_TEACH_INEXP)
+FROM BOCES_and_N_RC AS T1
+INNER JOIN Inexperienced_Teachers_and_Principals AS T2
+  ON T1.ENTITY_CD = T2.ENTITY_CD
+GROUP BY
+  T1.DISTRICT_NAME
+ORDER BY
+  AVG(T2.PER_TEACH_INEXP) DESC
+LIMIT 5;</t>
+        </is>
+      </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc </t>
+          <t xml:space="preserve">select  DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc limit 5 </t>
         </is>
       </c>
       <c r="G353" t="n">
-        <v>-1</v>
+        <v>304</v>
       </c>
       <c r="H353" t="b">
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15279,7 +15635,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals] </t>
+          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals]  </t>
         </is>
       </c>
       <c r="G354" t="n">
@@ -15314,7 +15670,7 @@
       <c r="E355" t="inlineStr">
         <is>
           <t>SELECT
-  SUM(CAST(OUT_4_YR_CNT AS INTEGER))
+  SUM(CAST(OUT_4_YR_CNT AS REAL))
 FROM Postsecondary_Enrollment
 WHERE
   ENTITY_NAME = 'Brocton Middle High School'
@@ -15323,11 +15679,11 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL' </t>
+          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="H355" t="b">
         <v>1</v>
@@ -15368,7 +15724,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G356" t="n">
@@ -15400,21 +15756,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>SELECT T1.ENTITY_NAME FROM Teachers_Teaching_Out_of_Certification AS T1 INNER JOIN Institution_Grouping AS T2 ON T1.ENTITY_CD = T2.ENTITY_CD WHERE T1.YEAR = 2021 AND T2.GROUP_NAME = 'Public School District' ORDER BY T1.NUM_OUT_CERT DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc limit 1 </t>
         </is>
       </c>
       <c r="G357" t="n">
-        <v>-1</v>
+        <v>286</v>
       </c>
       <c r="H357" t="b">
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15447,7 +15807,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G358" t="n">
@@ -15486,7 +15846,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G359" t="n">
@@ -15535,7 +15895,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH' </t>
+          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH'  </t>
         </is>
       </c>
       <c r="G360" t="n">
@@ -15567,21 +15927,34 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.ENTITY_NAME
+FROM Total_Cohort_Regents_Exams AS T1
+INNER JOIN Institution_Grouping AS T2
+  ON T1.ENTITY_CD = T2.ENTITY_CD
+WHERE
+  T1.SUBGROUP_NAME = 'All Students' AND T1.SUBJECT = 'Mathematics' AND T1.LEVEL4_%COHORT != 's'
+ORDER BY
+  REPLACE(T1.LEVEL4_%COHORT, ',', '') DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 1 ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G361" t="n">
-        <v>-1</v>
+        <v>355</v>
       </c>
       <c r="H361" t="b">
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -15609,7 +15982,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH] </t>
+          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH]  </t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -15647,12 +16020,12 @@
   SUM(T1.TOTAL_COUNT)
 FROM Annual_EM_SCIENCE AS T1
 WHERE
-  T1.YEAR = 2021 AND T1.ASSESSMENT_NAME = 'Science4' AND T1.SUBGROUP_NAME = 'Male' AND T1.ENTITY_NAME = 'FORTS FERRY SCHOOL';</t>
+  T1.SUBGROUP_NAME = 'Male' AND T1.ASSESSMENT_NAME = 'Science4' AND T1.YEAR = 2021 AND T1.ENTITY_NAME = 'FORTS FERRY SCHOOL';</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL' </t>
+          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL'  </t>
         </is>
       </c>
       <c r="G363" t="n">
@@ -15684,21 +16057,32 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.ENTITY_NAME
+FROM Postsecondary_Enrollment AS T1
+WHERE
+  T1.YEAR = 2022 AND T1.SUBGROUP_NAME = 'All Students' AND T1.PER_OUT_4_YR != 's'
+ORDER BY
+  CAST(T1.PER_OUT_4_YR AS REAL) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G364" t="n">
-        <v>-1</v>
+        <v>314</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -15726,7 +16110,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as station_count  from tbl_stations </t>
+          <t xml:space="preserve">select count(*) as station_count  from tbl_stations  </t>
         </is>
       </c>
       <c r="G365" t="n">
@@ -15765,7 +16149,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Island) from tbl_locations </t>
+          <t xml:space="preserve">select count(distinct Island) from tbl_locations  </t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -15804,7 +16188,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island </t>
+          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island  </t>
         </is>
       </c>
       <c r="G367" t="n">
@@ -15843,7 +16227,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8 </t>
+          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8  </t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -15882,7 +16266,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id </t>
+          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id  </t>
         </is>
       </c>
       <c r="G369" t="n">
@@ -15921,7 +16305,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization </t>
+          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization  </t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -15960,7 +16344,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo' </t>
+          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo'  </t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -15994,18 +16378,16 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>SELECT Event_ID, Station_ID, Start_Date
-FROM tbl_Events
-WHERE Repeat_Sample = 1 AND Verified_by = 'Lauren Smith'</t>
+          <t>SELECT Event_ID, Station_ID, Start_Date FROM tbl_Events WHERE Repeat_Sample = 1 AND Verified_by = 'Lauren Smith'</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith' </t>
+          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith'  </t>
         </is>
       </c>
       <c r="G372" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H372" t="b">
         <v>1</v>
@@ -16046,7 +16428,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G373" t="n">
@@ -16092,7 +16474,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat </t>
+          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat  </t>
         </is>
       </c>
       <c r="G374" t="n">
@@ -16134,7 +16516,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7 </t>
+          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7  </t>
         </is>
       </c>
       <c r="G375" t="n">
@@ -16166,21 +16548,35 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Scientific_Name,
+  T1.Common_Name
+FROM tlu_Species AS T1
+INNER JOIN tbl_Observations AS T2
+  ON T1.Species_ID = T2.Species_ID
+GROUP BY
+  T1.Species_ID
+ORDER BY
+  COUNT(T2.Species_ID) DESC
+LIMIT 3;</t>
+        </is>
+      </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 3 scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc </t>
+          <t xml:space="preserve">select  scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc limit 3 </t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>-1</v>
+        <v>255</v>
       </c>
       <c r="H376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16201,21 +16597,31 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>SELECT Understory_Comp, Canopy_Comp
+FROM tbl_Habitat
+JOIN tbl_Events ON tbl_Habitat.Event_ID = tbl_Events.Event_ID
+WHERE Entered_by = 'Caitlin Jensen'
+GROUP BY Understory_Comp, Canopy_Comp
+ORDER BY COUNT(*) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc </t>
+          <t xml:space="preserve">select  canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G377" t="n">
-        <v>-1</v>
+        <v>248</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16252,7 +16658,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb' </t>
+          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb'  </t>
         </is>
       </c>
       <c r="G378" t="n">
@@ -16297,7 +16703,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t </t>
+          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t  </t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -16336,7 +16742,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections </t>
+          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections  </t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -16368,21 +16774,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>SELECT T2.Common_Name FROM tbl_Detections AS T1 INNER JOIN tbl_Observations AS T3 ON T1.Observation_ID = T3.Observation_ID INNER JOIN tlu_Species AS T2 ON T3.Species_ID = T2.Species_ID ORDER BY T1.Distance DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc </t>
+          <t xml:space="preserve">select  common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc limit 1 </t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="H381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16417,7 +16827,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae' </t>
+          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae'  </t>
         </is>
       </c>
       <c r="G382" t="n">
@@ -16456,7 +16866,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct source from tlu_species </t>
+          <t xml:space="preserve">select distinct source from tlu_species  </t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -16495,7 +16905,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631 </t>
+          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631  </t>
         </is>
       </c>
       <c r="G384" t="n">
@@ -16534,7 +16944,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart' </t>
+          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart'  </t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -16578,7 +16988,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id </t>
+          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id  </t>
         </is>
       </c>
       <c r="G386" t="n">
@@ -16617,7 +17027,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku' </t>
+          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku'  </t>
         </is>
       </c>
       <c r="G387" t="n">
@@ -16658,7 +17068,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G388" t="n">
@@ -16700,7 +17110,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum </t>
+          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum  </t>
         </is>
       </c>
       <c r="G389" t="n">
@@ -16745,7 +17155,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0 </t>
+          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0  </t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -16784,7 +17194,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details ) </t>
+          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details )  </t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -16832,7 +17242,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island </t>
+          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island  </t>
         </is>
       </c>
       <c r="G392" t="n">
@@ -16864,21 +17274,37 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Island,
+  COUNT(T3.Transect_ID)
+FROM tbl_Locations AS T1
+INNER JOIN tbl_Transect AS T2
+  ON T1.Location_ID = T2.Location_ID
+INNER JOIN tbl_Stations AS T3
+  ON T2.Transect_ID = T3.Transect_ID
+GROUP BY
+  T1.Island
+ORDER BY
+  COUNT(T3.Transect_ID)
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc </t>
+          <t xml:space="preserve">select  Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc limit 1 </t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>-1</v>
+        <v>292</v>
       </c>
       <c r="H393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16908,10 +17334,10 @@
 INNER JOIN tlu_Species AS T2
   ON T2.Species_ID IN (
     SELECT
-      Species_ID
-    FROM tbl_Observations
+      T3.Species_ID
+    FROM tbl_Observations AS T3
     WHERE
-      Event_ID = T1.Event_ID
+      T3.Event_ID = T1.Event_ID
   )
 WHERE
   T1.Rain = 1;</t>
@@ -16919,18 +17345,18 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1 </t>
+          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1  </t>
         </is>
       </c>
       <c r="G394" t="n">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16969,7 +17395,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name </t>
+          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -17021,7 +17447,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station </t>
+          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station  </t>
         </is>
       </c>
       <c r="G396" t="n">
@@ -17069,7 +17495,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc </t>
+          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc  </t>
         </is>
       </c>
       <c r="G397" t="n">
@@ -17101,21 +17527,25 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>SELECT Station, Lat_final, Long_final FROM tbl_Stations ORDER BY Lat_final DESC LIMIT 1</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 lat_final, long_final, Station  from tbl_stations order by lat_final desc </t>
+          <t xml:space="preserve">select  lat_final, long_final, Station  from tbl_stations order by lat_final desc limit 1 </t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>-1</v>
+        <v>176</v>
       </c>
       <c r="H398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -17151,7 +17581,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi' </t>
+          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi'  </t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -17190,7 +17620,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings </t>
+          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings  </t>
         </is>
       </c>
       <c r="G400" t="n">
@@ -17239,7 +17669,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc </t>
+          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc  </t>
         </is>
       </c>
       <c r="G401" t="n">
@@ -17289,7 +17719,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name </t>
+          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G402" t="n">
@@ -17356,32 +17786,18 @@
 JOIN tlu_Contacts AS C
   ON XEC.Contact_ID = C.Contact_ID
 LEFT JOIN xref_Species_Alternate_Names AS XSAN
-  ON O.Species_ID = XSAN.Species_ID
+  ON SP.Species_ID = XSAN.Species_ID
 LEFT JOIN tbl_Events AS EV
-  ON O.Event_ID = EV.Event_ID
-ORDER BY
-  L.Island,
-  S.Site_Name,
-  L.Loc_Name,
-  T.Transect,
-  T.Transect_Type,
-  ST.Station,
-  ST.Lat_final,
-  E.Event_ID,
-  C.Last_Name,
-  SP.Family,
-  SP.Scientific_Name,
-  SP.Common_Name,
-  XSAN.Alternate_Name;</t>
+  ON O.Event_ID = EV.Event_ID;</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID </t>
+          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID  </t>
         </is>
       </c>
       <c r="G403" t="n">
-        <v>867</v>
+        <v>766</v>
       </c>
       <c r="H403" t="b">
         <v>0</v>
@@ -17409,21 +17825,44 @@
           <t>gemini-2.0-flash-lite-001</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>SELECT
+  T1.Island
+FROM tbl_Locations AS T1
+INNER JOIN tbl_Transect AS T2
+  ON T1.Location_ID = T2.Location_ID
+INNER JOIN tbl_Stations AS T3
+  ON T2.Transect_ID = T3.Transect_ID
+INNER JOIN tbl_Events AS T4
+  ON T3.Station_ID = T4.Station_ID
+INNER JOIN tbl_Observations AS T5
+  ON T4.Event_ID = T5.Event_ID
+INNER JOIN tlu_Species AS T6
+  ON T5.Species_ID = T6.Species_ID
+WHERE
+  T6.Common_Name = 'Pacific Kingfisher'
+GROUP BY
+  T1.Island
+ORDER BY
+  COUNT(T5.Species_ID) DESC
+LIMIT 1;</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count </t>
+          <t xml:space="preserve">select  island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count limit 1 </t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>-1</v>
+        <v>461</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -17486,17 +17925,17 @@
       <c r="E406" t="inlineStr">
         <is>
           <t>SELECT
-  OPEX.PayeeName,
-  OPEX.PayeeZip,
-  OPEX.PayeeCity,
-  OPEX.PayeeStree,
-  OPEX.PayCountry,
-  OPEX.PayeeState
-FROM OPEX
-JOIN OUDP
-  ON OPEX.Department = OUDP.Code
+  T1.PayeeName,
+  T1.PayeeZip,
+  T1.PayeeCity,
+  T1.PayeeStree,
+  T1.PayCountry,
+  T1.PayeeState
+FROM OPEX AS T1
+INNER JOIN OUDP AS T2
+  ON T1.Department = T2.Code
 WHERE
-  OUDP.Name = 'General';</t>
+  T2.Name = 'General';</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -17505,7 +17944,7 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H406" t="b">
         <v>1</v>
@@ -18228,7 +18667,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>SELECT Balance FROM OCRD WHERE PymCode = 'Incoming BT' AND Currency IN ('EUR', 'CAN')</t>
+          <t>SELECT
+  OCRD.Balance
+FROM OCRD
+WHERE
+  OCRD.PymCode = 'Incoming BT' AND OCRD.Currency IN ('EUR', 'CAN');</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -18237,7 +18680,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H423" t="b">
         <v>1</v>
@@ -18581,6 +19024,8 @@
   STRFTIME('%Y', NextDeu) AS PostingYear,
   COUNT(*)
 FROM ORCR
+WHERE
+  NextDeu IS NOT NULL
 GROUP BY
   PostingYear;</t>
         </is>
@@ -18591,7 +19036,7 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H431" t="b">
         <v>0</v>
@@ -19332,7 +19777,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>SELECT T1.FNameSP, T1.SurnameSP FROM OHEM AS T1 INNER JOIN OHEM AS T2 ON T1.lastName = T2.lastName AND T1.firstName = T2.firstName WHERE T2.firstName = 'Maria' AND T2.lastName = 'Bridi'</t>
+          <t>SELECT T1.FNameSP, T1.SurnameSP FROM OHEM AS T1 INNER JOIN OHEM AS T2 ON T1.lastName = T2.lastName WHERE T2.firstName = 'Maria' AND T2.lastName = 'Bridi'</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -19341,7 +19786,7 @@
         </is>
       </c>
       <c r="G449" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H449" t="b">
         <v>1</v>
@@ -19496,7 +19941,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>SELECT JTCode FROM OHEM WHERE lastName = 'Chan'</t>
+          <t>SELECT T1.JTCode FROM OHEM AS T1 WHERE T1.lastName = 'Chan'</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -19505,7 +19950,7 @@
         </is>
       </c>
       <c r="G453" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H453" t="b">
         <v>1</v>
@@ -19535,7 +19980,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>SELECT AVG(T1.VacCurYear) FROM OHEM AS T1 INNER JOIN HTM1 AS T2 ON T1.empID = T2.empID INNER JOIN OHTM AS T3 ON T2.teamID = T3.teamID WHERE T3.name = 'Sales';</t>
+          <t>SELECT AVG(T1.VacCurYear) FROM OHEM AS T1 INNER JOIN HTM1 AS T2 ON T1.empID = T2.empID INNER JOIN OHTM AS T3 ON T2.teamID = T3.teamID WHERE T3.name = 'Sales'</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -20869,9 +21314,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SELECT CardGroup, AVG(MaxSumLoc)
-FROM OOPR
-GROUP BY CardGroup;</t>
+          <t>SELECT AVG(MaxSumLoc) FROM OOPR GROUP BY CardGroup</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -20880,14 +21323,14 @@
         </is>
       </c>
       <c r="G485" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -21261,7 +21704,7 @@
         <is>
           <t>SELECT
   STRFTIME('%Y', CreateDate) AS SaleYear,
-  AVG(SumProfL)
+  AVG(SumProfL) AS AvgGrossProfit
 FROM OOPR
 GROUP BY
   SaleYear;</t>
@@ -21273,7 +21716,7 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H494" t="b">
         <v>0</v>
@@ -21649,8 +22092,15 @@
 JOIN OSCL
   ON OCTR.CstmrCode = OSCL.customer
 WHERE
-  OCTR.CstmrName = 'Silver Warranty'
+  OCTR.CstmrCode IN (
+    SELECT
+      CstmrCode
+    FROM OCTR
+    WHERE
+      CstmrName = 'Silver Warranty'
+  )
 GROUP BY
+  OCTR.CstmrCode,
   OCTR.CstmrName;</t>
         </is>
       </c>
@@ -21660,7 +22110,7 @@
         </is>
       </c>
       <c r="G503" t="n">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="H503" t="b">
         <v>0</v>
